--- a/Result/Orbit/Service/BRA.xlsx
+++ b/Result/Orbit/Service/BRA.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>40.39216130279042</v>
+        <v>40.57245914312284</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>41.75996842349758</v>
+        <v>42.0497579347318</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>42.4190255795566</v>
+        <v>42.32854252753946</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>43.44155036882159</v>
+        <v>42.86231676263694</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>43.32850625327787</v>
+        <v>43.50630111547003</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>41.51539060257752</v>
+        <v>43.40667295034397</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64470131460936</v>
+        <v>41.69652433123355</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>41.24641256639161</v>
+        <v>40.34994693996651</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>44.78031830526385</v>
+        <v>40.94141484995695</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>48.36730926609516</v>
+        <v>45.27724205995428</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>60.49660594273774</v>
+        <v>49.26324068597219</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>60.54971376498944</v>
+        <v>62.39160474739111</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>68.35745481971038</v>
+        <v>63.47340656506374</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>73.33788012680031</v>
+        <v>70.60314138300947</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>56.89434247242718</v>
+        <v>76.56505694591829</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>58.12141637349539</v>
+        <v>58.2583853108802</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>60.31887979344722</v>
+        <v>56.80031941615454</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>60.6057128176905</v>
+        <v>59.44352130387399</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>61.11859304813537</v>
+        <v>60.20493785371021</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>60.20365663472661</v>
+        <v>61.37630871095527</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>58.25186124746511</v>
+        <v>60.51770558393893</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>57.71369224739362</v>
+        <v>57.95138525644934</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>57.3481454732844</v>
+        <v>57.25505122901694</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>56.35782813582522</v>
+        <v>56.97596781723503</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>54.92047110790613</v>
+        <v>56.15831221085891</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>56.07589161025081</v>
+        <v>54.80763646760492</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>57.13812720270957</v>
+        <v>55.84894643526097</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>57.72623620312919</v>
+        <v>57.27691675829271</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80486176779907</v>
+        <v>58.44105243266869</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>59.14505921092611</v>
+        <v>57.23928538592683</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>57.61292197538091</v>
+        <v>59.15105562930316</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>57.56816931633505</v>
+        <v>58.06656165653764</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>58.73360250964264</v>
+        <v>57.74015502663755</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>59.67875798588496</v>
+        <v>59.2632486868004</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>61.25097401370299</v>
+        <v>59.49672240769461</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>62.30786717674127</v>
+        <v>61.80547552424122</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>63.20369582826915</v>
+        <v>62.91187754757597</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -874,50 +874,70 @@
         <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>63.20369516209698</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>64.46618487622914</v>
+      </c>
+      <c r="C2" t="n">
+        <v>58.96027487499342</v>
+      </c>
+      <c r="D2" t="n">
+        <v>69.56637595458096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>63.20369516209698</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>64.52467432073371</v>
+      </c>
+      <c r="C3" t="n">
+        <v>56.30211949763769</v>
+      </c>
+      <c r="D3" t="n">
+        <v>70.72321935510517</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>63.20369516209698</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>64.97460973196917</v>
+      </c>
+      <c r="C4" t="n">
+        <v>53.67480343063038</v>
+      </c>
+      <c r="D4" t="n">
+        <v>73.37073835778402</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>63.20369516209698</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>65.41212387358132</v>
+      </c>
+      <c r="C5" t="n">
+        <v>51.98023952091309</v>
+      </c>
+      <c r="D5" t="n">
+        <v>74.96053193372231</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>63.20369516209698</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>66.76741496401667</v>
+      </c>
+      <c r="C6" t="n">
+        <v>52.02115965368113</v>
+      </c>
+      <c r="D6" t="n">
+        <v>77.03337481657174</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -965,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>40.39216130279042</v>
+        <v>40.26545312194847</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -975,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>41.75996842349758</v>
+        <v>41.99196976339336</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -985,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>42.4190255795566</v>
+        <v>42.69849459950561</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -995,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>43.44155036882159</v>
+        <v>42.79126874190707</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1005,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>43.32850625327787</v>
+        <v>44.22011887648792</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>41.51539060257752</v>
+        <v>43.68484267313329</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1025,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>40.64470131460936</v>
+        <v>42.15654792467393</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1035,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>41.24641256639161</v>
+        <v>40.83228050035089</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1045,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>44.78031830526385</v>
+        <v>41.07761648133304</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1055,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>48.36730926609516</v>
+        <v>44.98204650079653</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1065,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>60.49660594273774</v>
+        <v>49.10787495485218</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1075,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>60.54971376498944</v>
+        <v>62.47389334979235</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1085,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>68.35745481971038</v>
+        <v>62.63859956857837</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1095,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>73.33788012680031</v>
+        <v>70.03808814246597</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1105,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>56.89434247242718</v>
+        <v>75.82969790793827</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1115,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>58.12141637349539</v>
+        <v>58.22261192310053</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1125,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>60.31887979344722</v>
+        <v>56.26247747005407</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>60.6057128176905</v>
+        <v>59.09252671951407</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1145,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>61.11859304813537</v>
+        <v>60.63263283036791</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1155,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>60.20365663472661</v>
+        <v>60.8191660336777</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1165,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>58.25186124746511</v>
+        <v>60.52776881976597</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1175,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>57.71369224739362</v>
+        <v>58.09571752915276</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1185,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>57.3481454732844</v>
+        <v>57.23490484473612</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1195,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>56.35782813582522</v>
+        <v>57.00140648975842</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1205,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>54.92047110790613</v>
+        <v>55.8219826293534</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1215,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>56.07589161025081</v>
+        <v>54.84926303383611</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1225,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>57.13812720270957</v>
+        <v>55.49232089796703</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1235,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>57.72623620312919</v>
+        <v>57.09799879931102</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1245,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>56.80486176779907</v>
+        <v>58.06696782092695</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1255,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>59.14505921092611</v>
+        <v>56.94322112255245</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1265,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>57.61292197538091</v>
+        <v>59.38152406129461</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1275,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>57.56816931633505</v>
+        <v>58.19645527481919</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1285,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>58.73360250964264</v>
+        <v>57.9029536660446</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1295,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>59.67875798588496</v>
+        <v>59.17912629544271</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1305,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>61.25097401370299</v>
+        <v>59.87340779443584</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1315,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>62.30786717674127</v>
+        <v>61.14040432325776</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1325,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>63.20369582826915</v>
+        <v>62.83842615825291</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1335,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>63.33867286074985</v>
+        <v>64.07487564858084</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1345,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>62.65335034702257</v>
+        <v>64.08416230153536</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1355,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>63.06784925390022</v>
+        <v>63.01593359797302</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1365,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>62.79521127395249</v>
+        <v>63.07538990997422</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1375,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>59.38128912386762</v>
+        <v>62.85643407621131</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
@@ -1426,50 +1446,70 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>59.38129127217531</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+        <v>59.18540601309988</v>
+      </c>
+      <c r="C2" t="n">
+        <v>55.55012851372369</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.14781678191232</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>59.38129127217531</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+        <v>58.12198815125803</v>
+      </c>
+      <c r="C3" t="n">
+        <v>54.55640884316837</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.55239859835767</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>59.38129127217531</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+        <v>57.99517401646706</v>
+      </c>
+      <c r="C4" t="n">
+        <v>52.06833722412912</v>
+      </c>
+      <c r="D4" t="n">
+        <v>66.35096389201399</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>59.38129127217531</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+        <v>57.33854827232575</v>
+      </c>
+      <c r="C5" t="n">
+        <v>50.70587393605003</v>
+      </c>
+      <c r="D5" t="n">
+        <v>64.71068428533066</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>59.38129127217531</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
+        <v>56.90699950501674</v>
+      </c>
+      <c r="C6" t="n">
+        <v>47.89784835794805</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67.47000716794669</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
